--- a/biology/Zoologie/Coscinaraeidae/Coscinaraeidae.xlsx
+++ b/biology/Zoologie/Coscinaraeidae/Coscinaraeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Coscinaraeidae sont une famille de scléractiniaires (coraux durs dits « coraux bâtisseurs de récifs »). Ces espèces sont présentes dans l'océan Pacifique Sud[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Coscinaraeidae sont une famille de scléractiniaires (coraux durs dits « coraux bâtisseurs de récifs »). Ces espèces sont présentes dans l'océan Pacifique Sud.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (21 janvier 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (21 janvier 2021) :
 Anomastraea Marenzeller, 1901 
 Coscinaraea Milne Edwards &amp; Haime, 1848
 Craterastrea Head, 1983
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Benzoni (d), Arrigoni, Stefani (d) et Stolarski (d), « Systematics of the coral genus Craterastrea (Cnidaria, Anthozoa, Scleractinia) and description of a new family through combined morphological and molecular analyses », Systematics and Biodiversity, vol. 10, no 4,‎ 2012, p. 417-433 (ISSN 1477-2000).</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Référence taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
